--- a/temporary-file/calibrating-tensi.xlsx
+++ b/temporary-file/calibrating-tensi.xlsx
@@ -18,6 +18,20 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t xml:space="preserve">XL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MMHG</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -123,11 +137,11 @@
   </sheetPr>
   <dimension ref="A1:N119"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B1:C14 A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
@@ -2998,126 +3012,186 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:C14"/>
+  <dimension ref="B1:F16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1:C14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.37"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1" t="n">
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="2"/>
+      <c r="D2" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="2"/>
+      <c r="D3" s="0" t="n">
+        <v>21327</v>
+      </c>
+      <c r="E3" s="1" t="n">
         <v>21353</v>
       </c>
-      <c r="C1" s="0" t="n">
+      <c r="F3" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="2" t="n">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="2"/>
+      <c r="D4" s="0" t="n">
+        <v>21870</v>
+      </c>
+      <c r="E4" s="2" t="n">
         <v>21920</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="F4" s="0" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="2" t="n">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="2"/>
+      <c r="D5" s="0" t="n">
+        <v>22300</v>
+      </c>
+      <c r="E5" s="2" t="n">
         <v>22317</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="F5" s="0" t="n">
         <v>40</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="2" t="n">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="2"/>
+      <c r="D6" s="0" t="n">
+        <v>22700</v>
+      </c>
+      <c r="E6" s="2" t="n">
         <v>22853</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="F6" s="0" t="n">
         <v>60</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="2" t="n">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="2"/>
+      <c r="D7" s="0" t="n">
+        <v>23100</v>
+      </c>
+      <c r="E7" s="2" t="n">
         <v>23323</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="F7" s="0" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="2" t="n">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="2"/>
+      <c r="D8" s="0" t="n">
+        <v>23600</v>
+      </c>
+      <c r="E8" s="2" t="n">
         <v>23759</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="F8" s="0" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="2" t="n">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="2"/>
+      <c r="D9" s="0" t="n">
+        <v>24050</v>
+      </c>
+      <c r="E9" s="2" t="n">
         <v>24216</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="F9" s="0" t="n">
         <v>120</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="2" t="n">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="2"/>
+      <c r="D10" s="0" t="n">
+        <v>24500</v>
+      </c>
+      <c r="E10" s="2" t="n">
         <v>24661</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="F10" s="0" t="n">
         <v>140</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="2" t="n">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="2"/>
+      <c r="D11" s="0" t="n">
+        <v>25000</v>
+      </c>
+      <c r="E11" s="2" t="n">
         <v>25061</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="F11" s="0" t="n">
         <v>160</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="2" t="n">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="2"/>
+      <c r="D12" s="0" t="n">
+        <v>25470</v>
+      </c>
+      <c r="E12" s="2" t="n">
         <v>25592</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="F12" s="0" t="n">
         <v>180</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="2" t="n">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="2"/>
+      <c r="D13" s="0" t="n">
+        <v>25900</v>
+      </c>
+      <c r="E13" s="2" t="n">
         <v>26019</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="F13" s="0" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="2" t="n">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="2"/>
+      <c r="E14" s="2" t="n">
         <v>26489</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="F14" s="0" t="n">
         <v>220</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="2" t="n">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E15" s="2" t="n">
         <v>27002</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="F15" s="0" t="n">
         <v>240</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="2" t="n">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E16" s="2" t="n">
         <v>27426</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="F16" s="0" t="n">
         <v>260</v>
       </c>
     </row>
